--- a/public/alteracao_velocidade.xlsx
+++ b/public/alteracao_velocidade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\git\insieme-frontend\master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A1787C-B40A-4F0B-AA0A-75B6BE94BB30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057850C3-92EA-4EE2-B94A-554AC712E078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00EFDD90-392D-465E-A070-BF26F9522FDC}"/>
   </bookViews>
@@ -44,36 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>IDENTIFICAÇÃO DA ESTAÇÃO</t>
-  </si>
-  <si>
-    <t>CONTATO CLIENTE FINAL</t>
-  </si>
-  <si>
-    <t>CONFIGURAÇÃO</t>
-  </si>
-  <si>
-    <t>CONTATO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>TELEFONE DO CLIENTE</t>
-  </si>
-  <si>
-    <t>ENDEREÇO DE GERENCIA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>VLAN</t>
   </si>
   <si>
-    <t>INTERCONEXÃO TPZ</t>
-  </si>
-  <si>
     <t>WAN CPE REDE</t>
-  </si>
-  <si>
-    <t>ENDEREÇO DE LAN</t>
   </si>
   <si>
     <t>WAN CPE HOST</t>
@@ -82,14 +58,8 @@
     <t>LOOPBACK CPE</t>
   </si>
   <si>
-    <t>ROTAS SUMARIZADAS</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
     <r>
-      <t>DESIGNAÇÃO TELESPAZIO</t>
+      <t>TELESPAZIO DESIGNATION/DESIGNAÇÃO TELESPAZIO</t>
     </r>
     <r>
       <rPr>
@@ -103,11 +73,11 @@
     </r>
   </si>
   <si>
-    <t>DESIGNAÇÃO CLIENTE</t>
+    <t>CLIENT DESIGNATION/DESIGNAÇÃO CLIENTE</t>
   </si>
   <si>
     <r>
-      <t>VELOCIDADE SOLICITADA</t>
+      <t>ACTUAL SPEED/VELOCIDADE ATUAL</t>
     </r>
     <r>
       <rPr>
@@ -122,7 +92,7 @@
   </si>
   <si>
     <r>
-      <t>VELOCIDADE ATUAL</t>
+      <t>REQUIRED SPEED/VELOCIDADE SOLICITADA</t>
     </r>
     <r>
       <rPr>
@@ -134,6 +104,39 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>CLIENT CONTACT/CONTATO DO CLIENTE</t>
+  </si>
+  <si>
+    <t>CLIENT PHONE/TELEFONE DO CLIENTE</t>
+  </si>
+  <si>
+    <t>* Campo obrigatório/Required field</t>
+  </si>
+  <si>
+    <t>MANAGE ADDRESS/ENDEREÇO DE GERENCIA</t>
+  </si>
+  <si>
+    <t>INTERCONNECTION/INTERCONEXÃO TPZ</t>
+  </si>
+  <si>
+    <t>LAN ADDRESS/ENDEREÇO DE LAN</t>
+  </si>
+  <si>
+    <t>SUMMARIZED ROUTES/ROTAS SUMARIZADAS</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS/OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>STATION IDENTIFICATION/IDENTIFICAÇÃO DA ESTAÇÃO</t>
+  </si>
+  <si>
+    <t>FINAL CLIENT CONTACT/CONTATO CLIENTE FINAL</t>
+  </si>
+  <si>
+    <t>CONFIGURATION/CONFIGURAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -15762,10 +15765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33F4C1E-4C48-44BF-910F-AB34C466BE99}">
-  <dimension ref="B1:P23"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15774,7 +15777,9 @@
     <col min="2" max="3" width="25.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="14" width="21.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" style="1" customWidth="1"/>
@@ -16288,17 +16293,17 @@
   <sheetData>
     <row r="1" spans="2:16" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
       <c r="F1" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -16309,51 +16314,51 @@
       <c r="O1" s="16"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="2:16" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -16713,6 +16718,11 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
